--- a/Data/CAdmin.xlsx
+++ b/Data/CAdmin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwinraj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\EdwinAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="34">
   <si>
     <t>Read</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Cut-Off Master</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -511,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DB1" workbookViewId="0">
-      <selection activeCell="DQ2" sqref="DQ2"/>
+    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
+      <selection activeCell="DA16" sqref="DA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,13 +964,13 @@
         <v>3</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>13</v>
